--- a/Anatomie/data/Neuroanatomie.xlsx
+++ b/Anatomie/data/Neuroanatomie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Anatomie\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B02B681-F35E-403C-BD2D-F93DD9496791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBB79E8-D444-4B48-80A3-C52536F5306D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{24E2671D-7CFF-4DA9-BE3C-6DCEADEF94F2}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{24E2671D-7CFF-4DA9-BE3C-6DCEADEF94F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="266">
   <si>
     <t>titre</t>
   </si>
@@ -156,6 +156,684 @@
   </si>
   <si>
     <t>image2</t>
+  </si>
+  <si>
+    <t>Lobe frontal</t>
+  </si>
+  <si>
+    <t>Sillon précentral</t>
+  </si>
+  <si>
+    <t>Circonvolution frontale ascendante ou précentrale</t>
+  </si>
+  <si>
+    <t>Circonvolution frontale sup (F1)</t>
+  </si>
+  <si>
+    <t>Circonvolution frontale moy (F2)</t>
+  </si>
+  <si>
+    <t>Circonvolution frontale inf (F3)</t>
+  </si>
+  <si>
+    <t>Sillon frontal inf</t>
+  </si>
+  <si>
+    <t>Sillon frontal sup</t>
+  </si>
+  <si>
+    <t>Lobe frontal 2 (cortex)</t>
+  </si>
+  <si>
+    <t>Cortex frontal dorso-latéral</t>
+  </si>
+  <si>
+    <t>Cortex moteur supplémentaire</t>
+  </si>
+  <si>
+    <t>Cortex occulomoteurs frontaux</t>
+  </si>
+  <si>
+    <t>Cortex moteur primaire</t>
+  </si>
+  <si>
+    <t>Cortex frontal antérieur</t>
+  </si>
+  <si>
+    <t>Cortex frontal ventro-lateral</t>
+  </si>
+  <si>
+    <t>Cortex Prémoteur</t>
+  </si>
+  <si>
+    <t>Circonvolution pariétale ascendante ou postcentrale</t>
+  </si>
+  <si>
+    <t>Sillon postcentral</t>
+  </si>
+  <si>
+    <t>Sillon interpariétal</t>
+  </si>
+  <si>
+    <t>Lobule pariétal supérieur</t>
+  </si>
+  <si>
+    <t>Lobule pariétal inférieur</t>
+  </si>
+  <si>
+    <t>Lobe pariétal</t>
+  </si>
+  <si>
+    <t>Lobe pariétal 2 (cortex)</t>
+  </si>
+  <si>
+    <t>Circonvolution supramarginale</t>
+  </si>
+  <si>
+    <t>Cortex sensitif primaire</t>
+  </si>
+  <si>
+    <t>Cortex vestibulaire</t>
+  </si>
+  <si>
+    <t>Cortex pariétal postérieur</t>
+  </si>
+  <si>
+    <t>Opercule pariétal ou Cortex somatosensitif secondaire</t>
+  </si>
+  <si>
+    <t>Circonvolution angulaire</t>
+  </si>
+  <si>
+    <t>Lobe temporal</t>
+  </si>
+  <si>
+    <t>Lobe temporal 2 (cortex)</t>
+  </si>
+  <si>
+    <t>Circonvolution temporal supérieur (T1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circonvolution temporal moyen (T2) </t>
+  </si>
+  <si>
+    <t>Circonvolution temporal inférieur (T3)</t>
+  </si>
+  <si>
+    <t>Sillon temporal sup</t>
+  </si>
+  <si>
+    <t>Sillon temporal inf</t>
+  </si>
+  <si>
+    <t>Pôle temporal</t>
+  </si>
+  <si>
+    <t>Cortex temporal latéral</t>
+  </si>
+  <si>
+    <t>Jonction temporo-pariétale</t>
+  </si>
+  <si>
+    <t>Coupe médio-sagittale</t>
+  </si>
+  <si>
+    <t>Ventricule latéral</t>
+  </si>
+  <si>
+    <t>Corps calleux</t>
+  </si>
+  <si>
+    <t>Diencéphale</t>
+  </si>
+  <si>
+    <t>Mésencéphale</t>
+  </si>
+  <si>
+    <t>Protubérance</t>
+  </si>
+  <si>
+    <t>Bulbe</t>
+  </si>
+  <si>
+    <t>Quatrième ventricule</t>
+  </si>
+  <si>
+    <t>Cervelet</t>
+  </si>
+  <si>
+    <t>Corps</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>Bourrelet Splenium</t>
+  </si>
+  <si>
+    <t>Genoux</t>
+  </si>
+  <si>
+    <t>Coupe médio-sagittale 2</t>
+  </si>
+  <si>
+    <t>Sillon cingulaire ou calloso-marginal</t>
+  </si>
+  <si>
+    <t>Scissure de Rolando</t>
+  </si>
+  <si>
+    <t>Scissure pariéto-occipitale</t>
+  </si>
+  <si>
+    <t>Cortex mésiofrontal</t>
+  </si>
+  <si>
+    <t>Circonvolution ou gyrus cingulaire</t>
+  </si>
+  <si>
+    <t>Cuneus</t>
+  </si>
+  <si>
+    <t>Lobule Lingual</t>
+  </si>
+  <si>
+    <t>Lobule paracentral</t>
+  </si>
+  <si>
+    <t>Précunéus</t>
+  </si>
+  <si>
+    <t>Scissure calcarine ou Cortex visuel primaire</t>
+  </si>
+  <si>
+    <t>Coupe médio-sagittale 3</t>
+  </si>
+  <si>
+    <t>Troisième ventricule</t>
+  </si>
+  <si>
+    <t>Commissure interthalamique</t>
+  </si>
+  <si>
+    <t>Thalamus</t>
+  </si>
+  <si>
+    <t>Habénula</t>
+  </si>
+  <si>
+    <t>Fornix</t>
+  </si>
+  <si>
+    <t>Trou de Monro</t>
+  </si>
+  <si>
+    <t>Commissure blanche antérieure</t>
+  </si>
+  <si>
+    <t>Hypothalamus</t>
+  </si>
+  <si>
+    <t>Chiasma optique</t>
+  </si>
+  <si>
+    <t>Epiphyse</t>
+  </si>
+  <si>
+    <t>Commissure blanche postérieure</t>
+  </si>
+  <si>
+    <t>Tubercules Quadrijumeaux</t>
+  </si>
+  <si>
+    <t>Hypophyse</t>
+  </si>
+  <si>
+    <t>Tubercules ou corps mamillaires</t>
+  </si>
+  <si>
+    <t>Aqueduc de Sylvius</t>
+  </si>
+  <si>
+    <t>Système ventriculaire</t>
+  </si>
+  <si>
+    <t>Carrefour</t>
+  </si>
+  <si>
+    <t>Ventricules latéraux</t>
+  </si>
+  <si>
+    <t>Corne frontale</t>
+  </si>
+  <si>
+    <t>Corne occipitale</t>
+  </si>
+  <si>
+    <t>Corne temporale</t>
+  </si>
+  <si>
+    <t>Foramens de Luscha</t>
+  </si>
+  <si>
+    <t>Foramen de Magendie</t>
+  </si>
+  <si>
+    <t>Face inférieur des hémisphères cérébraux</t>
+  </si>
+  <si>
+    <t>Circonvolutions orbitales</t>
+  </si>
+  <si>
+    <t>Sillon cruciforme</t>
+  </si>
+  <si>
+    <t>Sillon olfactif</t>
+  </si>
+  <si>
+    <t>Circonvolution orbitaire ou Gyrus droit</t>
+  </si>
+  <si>
+    <t>Nerf olfactif</t>
+  </si>
+  <si>
+    <t>Circonvolution Occipito-temporale (T4) ou Gyrus fusiforme</t>
+  </si>
+  <si>
+    <t>Sillon Occipito-temporal</t>
+  </si>
+  <si>
+    <t>Sillon latéral</t>
+  </si>
+  <si>
+    <t>Uncus</t>
+  </si>
+  <si>
+    <t>Cortex piriforme</t>
+  </si>
+  <si>
+    <t>Circonvolution parahippocampique</t>
+  </si>
+  <si>
+    <t>Lobule lingual</t>
+  </si>
+  <si>
+    <t>Face inférieur des hémisphères cérébraux 2</t>
+  </si>
+  <si>
+    <t>Substance perforée antérieure</t>
+  </si>
+  <si>
+    <t>Bulbe olfactif</t>
+  </si>
+  <si>
+    <t>Substance perforée postérieure</t>
+  </si>
+  <si>
+    <t>Ganglions géniculés</t>
+  </si>
+  <si>
+    <t>Pulvinar</t>
+  </si>
+  <si>
+    <t>Aqueduc de sylvius</t>
+  </si>
+  <si>
+    <t>Bandelettes olfactives</t>
+  </si>
+  <si>
+    <t>Tubercules mamillaires</t>
+  </si>
+  <si>
+    <t>Substance noire</t>
+  </si>
+  <si>
+    <t>Noyaux rouges</t>
+  </si>
+  <si>
+    <t>Splenium</t>
+  </si>
+  <si>
+    <t>Tronc cérébral</t>
+  </si>
+  <si>
+    <t>Pédoncules cérébraux</t>
+  </si>
+  <si>
+    <t>Pyramide</t>
+  </si>
+  <si>
+    <t>Olives bulbaires</t>
+  </si>
+  <si>
+    <t>Décussation pyramidale</t>
+  </si>
+  <si>
+    <t>Tronc cérébral 2</t>
+  </si>
+  <si>
+    <t>Tubercules quadrijumeaux</t>
+  </si>
+  <si>
+    <t>Pédoncules cérébelleux</t>
+  </si>
+  <si>
+    <t>Faisceau gracile</t>
+  </si>
+  <si>
+    <t>Faisceau cunéiforme</t>
+  </si>
+  <si>
+    <t>Lobe antérieur</t>
+  </si>
+  <si>
+    <t>Sillon primaire</t>
+  </si>
+  <si>
+    <t>Vermis supérieur</t>
+  </si>
+  <si>
+    <t>Lobe postérieur</t>
+  </si>
+  <si>
+    <t>Lobe flocculo-nodulaire ou flocculus</t>
+  </si>
+  <si>
+    <t>Amygdales cérébelleuse</t>
+  </si>
+  <si>
+    <t>Vermis inférieur</t>
+  </si>
+  <si>
+    <t>Insula</t>
+  </si>
+  <si>
+    <t>Capsule extrême</t>
+  </si>
+  <si>
+    <t>Claustrum</t>
+  </si>
+  <si>
+    <t>Capscule externe</t>
+  </si>
+  <si>
+    <t>Putamen</t>
+  </si>
+  <si>
+    <t>Globus pallidus</t>
+  </si>
+  <si>
+    <t>Capsule interne</t>
+  </si>
+  <si>
+    <t>Noyau caudé</t>
+  </si>
+  <si>
+    <t>Noyau caudé (queue)</t>
+  </si>
+  <si>
+    <t>Noyau caudé (tête)</t>
+  </si>
+  <si>
+    <t>Coupe horizontale</t>
+  </si>
+  <si>
+    <t>Piliers antérieurs</t>
+  </si>
+  <si>
+    <t>Piliers postérieurs</t>
+  </si>
+  <si>
+    <t>Fimbria</t>
+  </si>
+  <si>
+    <t>Hippocampe</t>
+  </si>
+  <si>
+    <t>Coupe coronale 1</t>
+  </si>
+  <si>
+    <t>Coupe coronale 2</t>
+  </si>
+  <si>
+    <t>Coupe coronale 3</t>
+  </si>
+  <si>
+    <t>Coupe coronale 4</t>
+  </si>
+  <si>
+    <t>Coupe coronale 5</t>
+  </si>
+  <si>
+    <t>Coupe coronale 6</t>
+  </si>
+  <si>
+    <t>Coupe coronale 7</t>
+  </si>
+  <si>
+    <t>Coupe coronale 8</t>
+  </si>
+  <si>
+    <t>Coupe coronale 9</t>
+  </si>
+  <si>
+    <t>Coupe coronale 10</t>
+  </si>
+  <si>
+    <t>Septum pellucidum</t>
+  </si>
+  <si>
+    <t>Amygdale</t>
+  </si>
+  <si>
+    <t>Capsule externe</t>
+  </si>
+  <si>
+    <t>Accumbens</t>
+  </si>
+  <si>
+    <t>Globus Pallidus</t>
+  </si>
+  <si>
+    <t>Globus Pallidus externe</t>
+  </si>
+  <si>
+    <t>Globus Pallidus interne</t>
+  </si>
+  <si>
+    <t>Citerne interpédonculaire</t>
+  </si>
+  <si>
+    <t>Circonvolutions transverses de Heschl</t>
+  </si>
+  <si>
+    <t>Flocculus</t>
+  </si>
+  <si>
+    <t>Quadrigéminale</t>
+  </si>
+  <si>
+    <t>Interpédonculaire</t>
+  </si>
+  <si>
+    <t>Pontique</t>
+  </si>
+  <si>
+    <t>Grande citerne</t>
+  </si>
+  <si>
+    <t>Citernes arachnoidiennes</t>
+  </si>
+  <si>
+    <t>Citernes arachnoidiennes 2</t>
+  </si>
+  <si>
+    <t>Coupe coronale 11</t>
+  </si>
+  <si>
+    <t>Coupe coronale 12</t>
+  </si>
+  <si>
+    <t>Coupe coronale 13</t>
+  </si>
+  <si>
+    <t>Coupe coronale 14</t>
+  </si>
+  <si>
+    <t>Coupe coronale 15</t>
+  </si>
+  <si>
+    <t>Coupe coronale 16</t>
+  </si>
+  <si>
+    <t>Coupe coronale 17</t>
+  </si>
+  <si>
+    <t>Préchiasmatique</t>
+  </si>
+  <si>
+    <t>Foramens de Luschka</t>
+  </si>
+  <si>
+    <t>Noyaux gris centraux</t>
+  </si>
+  <si>
+    <t>Striatum</t>
+  </si>
+  <si>
+    <t>Corps de Luys (noyau sous-thalamique)</t>
+  </si>
+  <si>
+    <t>Système ventriculaire (vue sup)</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Corne temporal</t>
+  </si>
+  <si>
+    <t>Noyau Mésencéphalique du V</t>
+  </si>
+  <si>
+    <t>Noyau sensoriel principal du V</t>
+  </si>
+  <si>
+    <t>Noyaux cochléaires (VIII)</t>
+  </si>
+  <si>
+    <t>Noyaux vestibulaires (VIII)</t>
+  </si>
+  <si>
+    <t>Noyau solitaire (VII, IX, X)</t>
+  </si>
+  <si>
+    <t>Tractus spinal (IX, X) et Noyau Spinal du V</t>
+  </si>
+  <si>
+    <t>Noyau Occulomoteur (III)</t>
+  </si>
+  <si>
+    <t>Noyau Trochléaire (IV)</t>
+  </si>
+  <si>
+    <t>Noyau moteur du trijumeau (V)</t>
+  </si>
+  <si>
+    <t>Noyau abducens (VI)</t>
+  </si>
+  <si>
+    <t>Noyau Facial (VII)</t>
+  </si>
+  <si>
+    <t>Noyau ambigu (IX, X, XI)</t>
+  </si>
+  <si>
+    <t>Noyau de l'hypoglosse (XII)</t>
+  </si>
+  <si>
+    <t>Noyau Spinal du nerf accessoire (XI)</t>
+  </si>
+  <si>
+    <t>Noyaux sensoriel et moteur</t>
+  </si>
+  <si>
+    <t>Noyaux autonomes</t>
+  </si>
+  <si>
+    <t>Noyau d'Edinger-Westphal (III)</t>
+  </si>
+  <si>
+    <t>Noyau salivaire sup (VII)</t>
+  </si>
+  <si>
+    <t>Noyau salivaire inf (IX)</t>
+  </si>
+  <si>
+    <t>Noyau dorsal du vague (X)</t>
+  </si>
+  <si>
+    <t>Noyaux tronc cérébral 1</t>
+  </si>
+  <si>
+    <t>Noyaux tronc cérébral 2</t>
+  </si>
+  <si>
+    <t>Noyaux tronc cérébral 3</t>
+  </si>
+  <si>
+    <t>Noyaux tronc cérébral 4</t>
+  </si>
+  <si>
+    <t>Noyaux tronc cérébral 5</t>
+  </si>
+  <si>
+    <t>Pour info</t>
+  </si>
+  <si>
+    <t>Noyau ambigu</t>
+  </si>
+  <si>
+    <t>Noyau spinal du V</t>
+  </si>
+  <si>
+    <t>Noyau du XII</t>
+  </si>
+  <si>
+    <t>Pédoncule cérébelleux inférieur</t>
+  </si>
+  <si>
+    <t>Faisceau spino thalamique</t>
+  </si>
+  <si>
+    <t>Olive inférieur</t>
+  </si>
+  <si>
+    <t>Lemiscus médian</t>
+  </si>
+  <si>
+    <t>Faisceau longitunidal médian</t>
+  </si>
+  <si>
+    <t>Noyau vestibulaire</t>
+  </si>
+  <si>
+    <t>Faisceau cortico-spinal</t>
+  </si>
+  <si>
+    <t>Noyau dentelé (cervelet)</t>
+  </si>
+  <si>
+    <t>Uvule (cervelet)</t>
+  </si>
+  <si>
+    <t>Noyau moteur du V</t>
+  </si>
+  <si>
+    <t>Noyau du III</t>
+  </si>
+  <si>
+    <t>Noyau d'Edinger-Westphal</t>
   </si>
 </sst>
 </file>
@@ -540,7 +1218,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50:XFD50"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="48.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,8 +1349,8 @@
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -683,10 +1361,31 @@
       <c r="D2" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -697,10 +1396,31 @@
       <c r="D3" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -711,10 +1431,25 @@
       <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -725,10 +1460,28 @@
       <c r="D5" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -739,10 +1492,25 @@
       <c r="D6" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -753,10 +1521,19 @@
       <c r="D7" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
@@ -767,10 +1544,34 @@
       <c r="D8" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
@@ -781,10 +1582,22 @@
       <c r="D9" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
@@ -795,10 +1608,43 @@
       <c r="D10" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
@@ -809,10 +1655,61 @@
       <c r="D11" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
@@ -823,10 +1720,43 @@
       <c r="D12" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
+      <c r="E12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="B13" s="1">
         <v>12</v>
@@ -837,10 +1767,49 @@
       <c r="D13" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
@@ -851,10 +1820,52 @@
       <c r="D14" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
@@ -865,10 +1876,28 @@
       <c r="D15" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="B16" s="1">
         <v>15</v>
@@ -879,10 +1908,31 @@
       <c r="D16" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
+      <c r="E16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B17" s="1">
         <v>16</v>
@@ -893,10 +1943,34 @@
       <c r="D17" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
+      <c r="E17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="B18" s="1">
         <v>17</v>
@@ -907,10 +1981,40 @@
       <c r="D18" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
+      <c r="E18" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B19" s="1">
         <v>18</v>
@@ -921,10 +2025,28 @@
       <c r="D19" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
+      <c r="E19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="B20" s="1">
         <v>19</v>
@@ -935,10 +2057,16 @@
       <c r="D20" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
+      <c r="E20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
@@ -949,10 +2077,16 @@
       <c r="D21" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
+      <c r="E21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="B22" s="1">
         <v>21</v>
@@ -963,10 +2097,49 @@
       <c r="D22" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
+      <c r="E22" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="B23" s="1">
         <v>22</v>
@@ -977,10 +2150,31 @@
       <c r="D23" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
+      <c r="E23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="B24" s="1">
         <v>23</v>
@@ -991,10 +2185,25 @@
       <c r="D24" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
+      <c r="E24" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="B25" s="1">
         <v>24</v>
@@ -1005,10 +2214,28 @@
       <c r="D25" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
+      <c r="E25" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="B26" s="1">
         <v>25</v>
@@ -1019,10 +2246,34 @@
       <c r="D26" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
+      <c r="E26" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="B27" s="1">
         <v>26</v>
@@ -1033,10 +2284,19 @@
       <c r="D27" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
+      <c r="E27" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="B28" s="1">
         <v>27</v>
@@ -1047,10 +2307,34 @@
       <c r="D28" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
+      <c r="E28" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="B29" s="1">
         <v>28</v>
@@ -1061,10 +2345,25 @@
       <c r="D29" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
+      <c r="E29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="B30" s="1">
         <v>29</v>
@@ -1075,10 +2374,16 @@
       <c r="D30" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
+      <c r="E30" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="B31" s="1">
         <v>30</v>
@@ -1089,10 +2394,16 @@
       <c r="D31" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
+      <c r="E31" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="B32" s="1">
         <v>31</v>
@@ -1103,10 +2414,22 @@
       <c r="D32" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
+      <c r="E32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="B33" s="1">
         <v>32</v>
@@ -1117,10 +2440,19 @@
       <c r="D33" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>33</v>
+      <c r="E33" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="B34" s="1">
         <v>33</v>
@@ -1131,10 +2463,16 @@
       <c r="D34" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34</v>
+      <c r="E34" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="B35" s="1">
         <v>34</v>
@@ -1145,10 +2483,16 @@
       <c r="D35" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>35</v>
+      <c r="E35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="B36" s="1">
         <v>35</v>
@@ -1159,10 +2503,19 @@
       <c r="D36" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
+      <c r="E36" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="B37" s="1">
         <v>36</v>
@@ -1173,10 +2526,22 @@
       <c r="D37" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>37</v>
+      <c r="E37" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="B38" s="1">
         <v>37</v>
@@ -1187,10 +2552,22 @@
       <c r="D38" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>38</v>
+      <c r="E38" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B39" s="1">
         <v>38</v>
@@ -1201,10 +2578,40 @@
       <c r="D39" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>39</v>
+      <c r="E39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="B40" s="1">
         <v>39</v>
@@ -1215,10 +2622,28 @@
       <c r="D40" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>40</v>
+      <c r="E40" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="B41" s="1">
         <v>40</v>
@@ -1229,10 +2654,37 @@
       <c r="D41" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>41</v>
+      <c r="E41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="B42" s="1">
         <v>41</v>
@@ -1243,10 +2695,52 @@
       <c r="D42" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>42</v>
+      <c r="E42" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="B43" s="1">
         <v>42</v>
@@ -1257,10 +2751,22 @@
       <c r="D43" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>43</v>
+      <c r="E43" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="B44" s="1">
         <v>43</v>
@@ -1271,10 +2777,43 @@
       <c r="D44" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>44</v>
+      <c r="E44" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="B45" s="1">
         <v>44</v>
@@ -1285,10 +2824,34 @@
       <c r="D45" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>45</v>
+      <c r="E45" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="B46" s="1">
         <v>45</v>
@@ -1299,10 +2862,37 @@
       <c r="D46" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>46</v>
+      <c r="E46" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="B47" s="1">
         <v>46</v>
@@ -1313,10 +2903,19 @@
       <c r="D47" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>47</v>
+      <c r="E47" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="B48" s="1">
         <v>47</v>
@@ -1327,10 +2926,19 @@
       <c r="D48" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E48" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>48</v>
+      <c r="A49" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="B49" s="1">
         <v>48</v>
